--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,6 @@
           <t>中融量化智选混合C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>91.40</t>
@@ -3125,6 +3125,1050 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4175,4 +4176,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3992</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5687</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5106,4 +5107,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5115,7 +5116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5126,17 +5127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5146,14 +5167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.82</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5162,14 +5205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.41</v>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5178,14 +5243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.04</v>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5194,13 +5281,1101 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>34</v>
       </c>
       <c r="D5" t="n">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
         <v>11.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6274,7 +6275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6285,17 +6286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6305,14 +6326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.39</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6321,14 +6364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.82</v>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6337,14 +6402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.41</v>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6353,14 +6440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.04</v>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6369,13 +6478,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>34</v>
       </c>
       <c r="D6" t="n">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
         <v>11.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6635,7 +6636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6646,17 +6647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6666,14 +6687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -6682,14 +6725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.39</v>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6698,14 +6763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.82</v>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6714,14 +6801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.41</v>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6730,14 +6839,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.04</v>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6746,13 +6877,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>34</v>
       </c>
       <c r="D7" t="n">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
         <v>11.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600183-生益科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>10.39</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>7.82</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>18.41</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>16.04</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>34</v>
       </c>
       <c r="D8" t="n">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D9" t="n">
         <v>11.76</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>江信祺福债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>江信祺福债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2401,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3331,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4367,1347 +4516,6 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011300</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7955</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009049</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达高端制造混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7855</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001856</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.8293</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001409</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信互联网加股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>43.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5845</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000263</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5320</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000603</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3416</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>75.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0908</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011301</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5373</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>040011</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安核心混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4701</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>080012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长盛电子信息产业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3534</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>110002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达策略成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3230</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>81.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2754</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1562</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001651</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信新蓝筹股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1514</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1291</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>481017</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银量化策略混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1265</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009867</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1093</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>481008</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010237</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0949</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0805</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>34.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001980</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中欧量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010238</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009868</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>100.41</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.89</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011474</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004833</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.89</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011476</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信新蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>34.41</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5773,6 +4581,1347 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5320</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>007490</t>
         </is>
       </c>
